--- a/medicine/Œil et vue/Drusen/Drusen.xlsx
+++ b/medicine/Œil et vue/Drusen/Drusen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les drusen, ou druses, sont des dépôts de matériel amorphe dans la rétine situés dans la couche cuticulaire de la membrane de Bruch au contact de l’épithélium pigmenté. Ils sont le facteur principal de l’apparition de néo-vaisseaux.
 On distingue plusieurs formes de drusen. Les plus fréquents sont les drusen miliaires de moins de 65 μm de diamètre, avec des bords nets, de couleur blanc jaunâtre, visibles au fond d'œil. Ces dépôts sont très fréquents et liés au vieillissement.
@@ -514,9 +526,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Suivant les sources le terme « drusen » vient du mot allemand Drüsen (glandes, glandules) ou d'un terme de minéralogie, « druse » (une géode aplatie). Le premier à le proposer est l'ophtalmologue allemand H. Müller en 1856[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suivant les sources le terme « drusen » vient du mot allemand Drüsen (glandes, glandules) ou d'un terme de minéralogie, « druse » (une géode aplatie). Le premier à le proposer est l'ophtalmologue allemand H. Müller en 1856.
 </t>
         </is>
       </c>
